--- a/data-raw/fluxes/lf_05-siphd/lf_05-siphd_d_2022-12-07.xlsx
+++ b/data-raw/fluxes/lf_05-siphd/lf_05-siphd_d_2022-12-07.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/_data/Copeland.2023.hypoxia.flux/data-raw/fluxes/lf_05-siphd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62F233-E107-8145-A6BE-C50865A7AFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701844A8-7DA2-5D43-A043-D8FAD834E41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23820" yWindow="4000" windowWidth="27140" windowHeight="16940" activeTab="1" xr2:uid="{101A82DF-E6B5-5B46-9986-3500AB660F6E}"/>
+    <workbookView xWindow="23820" yWindow="4000" windowWidth="27140" windowHeight="16940" activeTab="2" xr2:uid="{101A82DF-E6B5-5B46-9986-3500AB660F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="1" r:id="rId1"/>
     <sheet name="dna" sheetId="2" r:id="rId2"/>
+    <sheet name="lac" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
@@ -73,10 +74,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE879D2-77E3-EF4E-8F6E-9AEBBCB39BD6}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D58" sqref="D58:F65"/>
     </sheetView>
   </sheetViews>
@@ -1592,4 +1601,663 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD9467-38E6-6347-B79F-4047A8612669}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>29762766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>41733252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>56280640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>98978040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>151265328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>313146368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <v>497663744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>737574336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>43401380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>40559372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>43033500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>41342132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>42632540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>38925660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>42579952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>40643776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>45721036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>42504816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>43959200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>43701800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>112496384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>115249592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>111773760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>117927408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>117190056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>124616352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>98323904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>83042128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>88121600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>91308544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>94732976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>88613032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>230808912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>215184112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>242104144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>264428768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>273856384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>276597120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>183027872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>146613920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>148893328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>181805104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>165607264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>152226480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>435989408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>376178368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>410544224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>481549216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>411248320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>515882880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>280118912</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>233438608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>234977680</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>331631648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>248702976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>246788912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>